--- a/sample_watercourse_rainfall.xlsx
+++ b/sample_watercourse_rainfall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samar\Documents\Python\VSCODE\Pythonvenv\tf-venv\6.timeseries_rainfall_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740FBF14-6B16-4FA1-8A16-A94CFA846CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80E873C-1A78-45D6-B63C-FDC203F69A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1212" yWindow="564" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>1.6609259259259259</v>
